--- a/기획문서/캐릭터목록_스킬목록_상태이상목록.xlsx
+++ b/기획문서/캐릭터목록_스킬목록_상태이상목록.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="22995" windowHeight="11880" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="22995" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,6 +431,18 @@
   </si>
   <si>
     <t>결빙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,8 +489,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,24 +797,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -830,8 +846,11 @@
       <c r="J2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -862,8 +881,11 @@
       <c r="J3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -894,8 +916,11 @@
       <c r="J4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -926,8 +951,11 @@
       <c r="J5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -958,8 +986,11 @@
       <c r="J6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -990,8 +1021,11 @@
       <c r="J7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1022,8 +1056,11 @@
       <c r="J8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1054,8 +1091,11 @@
       <c r="J9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1086,8 +1126,11 @@
       <c r="J10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1118,8 +1161,11 @@
       <c r="J11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1150,8 +1196,11 @@
       <c r="J12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -1178,19 +1227,25 @@
       </c>
       <c r="J13">
         <v>9</v>
+      </c>
+      <c r="K13" s="1">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1198,12 +1253,12 @@
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1222,8 +1277,11 @@
       <c r="F2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1242,8 +1300,11 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1262,8 +1323,11 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1282,8 +1346,11 @@
       <c r="F5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1302,8 +1369,11 @@
       <c r="F6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1322,8 +1392,11 @@
       <c r="F7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1342,8 +1415,11 @@
       <c r="F8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1362,8 +1438,11 @@
       <c r="F9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1382,8 +1461,11 @@
       <c r="F10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1402,8 +1484,11 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -1422,8 +1507,11 @@
       <c r="F12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -1442,8 +1530,11 @@
       <c r="F13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1462,8 +1553,11 @@
       <c r="F14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -1482,8 +1576,11 @@
       <c r="F15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -1502,8 +1599,11 @@
       <c r="F16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1522,8 +1622,11 @@
       <c r="F17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -1542,8 +1645,11 @@
       <c r="F18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1562,8 +1668,11 @@
       <c r="F19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -1582,8 +1691,11 @@
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -1602,8 +1714,11 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1622,8 +1737,11 @@
       <c r="F22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1642,8 +1760,11 @@
       <c r="F23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -1662,8 +1783,11 @@
       <c r="F24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -1682,8 +1806,11 @@
       <c r="F25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1702,8 +1829,11 @@
       <c r="F26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1722,8 +1852,11 @@
       <c r="F27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -1742,8 +1875,11 @@
       <c r="F28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1762,8 +1898,11 @@
       <c r="F29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1782,8 +1921,11 @@
       <c r="F30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1801,6 +1943,9 @@
       </c>
       <c r="F31" t="s">
         <v>17</v>
+      </c>
+      <c r="G31">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1811,52 +1956,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/기획문서/캐릭터목록_스킬목록_상태이상목록.xlsx
+++ b/기획문서/캐릭터목록_스킬목록_상태이상목록.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="22995" windowHeight="11820"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="22995" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="111">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +443,22 @@
   </si>
   <si>
     <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aqua3_aquabomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire4_meteo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aqua4_tsunami</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -1241,24 +1257,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1280,8 +1298,11 @@
       <c r="G2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1304,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1327,7 +1348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1349,8 +1370,11 @@
       <c r="G5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1372,8 +1396,11 @@
       <c r="G6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1396,7 +1423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1419,7 +1446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1442,7 +1469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1464,8 +1491,11 @@
       <c r="G10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1488,7 +1518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -1511,7 +1541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -1534,7 +1564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1557,7 +1587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -1580,7 +1610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>

--- a/기획문서/캐릭터목록_스킬목록_상태이상목록.xlsx
+++ b/기획문서/캐릭터목록_스킬목록_상태이상목록.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,6 +459,18 @@
   </si>
   <si>
     <t>aqua4_tsunami</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varr_beard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground1_wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caro_carrot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1260,7 +1272,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1517,6 +1529,9 @@
       <c r="G11">
         <v>9</v>
       </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1633,7 +1648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1656,7 +1671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -1679,7 +1694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1701,8 +1716,11 @@
       <c r="G19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -1725,7 +1743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -1748,7 +1766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1771,7 +1789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1794,7 +1812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -1817,7 +1835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -1839,8 +1857,11 @@
       <c r="G25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1863,7 +1884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1886,7 +1907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -1909,7 +1930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1932,7 +1953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1955,7 +1976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>51</v>
       </c>

--- a/기획문서/캐릭터목록_스킬목록_상태이상목록.xlsx
+++ b/기획문서/캐릭터목록_스킬목록_상태이상목록.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="115">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +471,10 @@
   </si>
   <si>
     <t>caro_carrot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해야돼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1269,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1283,12 +1287,12 @@
     <col min="9" max="9" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1336,8 +1340,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1385,8 +1392,11 @@
       <c r="H5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1411,8 +1421,11 @@
       <c r="H6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1435,7 +1448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1457,8 +1470,11 @@
       <c r="G8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1481,7 +1497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1506,8 +1522,11 @@
       <c r="H10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1532,8 +1551,11 @@
       <c r="H11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -1555,8 +1577,11 @@
       <c r="G12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -1578,8 +1603,14 @@
       <c r="G13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1601,8 +1632,11 @@
       <c r="G14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -1625,7 +1659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -1648,7 +1682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1671,7 +1705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -1693,8 +1727,11 @@
       <c r="G18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1720,7 +1757,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -1743,7 +1780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -1766,7 +1803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1789,7 +1826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1812,7 +1849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -1835,7 +1872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -1861,7 +1898,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1884,7 +1921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1907,7 +1944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -1930,7 +1967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1953,7 +1990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1976,7 +2013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>51</v>
       </c>
